--- a/Onto_Estrutural/Ontologia_V1_Projeto_Estrutural.xlsx
+++ b/Onto_Estrutural/Ontologia_V1_Projeto_Estrutural.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\Onto_Projeto_Estrutural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9593C3D3-9F1D-4065-A07D-061E97C81B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE91E5A-F33D-4F00-A6C7-014C2A8E5A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="112">
   <si>
     <t>Escopo</t>
   </si>
@@ -337,6 +337,45 @@
   </si>
   <si>
     <t>Rvt.Parede</t>
+  </si>
+  <si>
+    <t>é.categoria</t>
+  </si>
+  <si>
+    <t>El.Armadura</t>
+  </si>
+  <si>
+    <t>El.Estrutural</t>
+  </si>
+  <si>
+    <t>é.dentro.de</t>
+  </si>
+  <si>
+    <t>Prédio</t>
+  </si>
+  <si>
+    <t>Predio_P0000001</t>
+  </si>
+  <si>
+    <t>tem.ID</t>
+  </si>
+  <si>
+    <t>Laje.3021203</t>
+  </si>
+  <si>
+    <t>Colu.3021204</t>
+  </si>
+  <si>
+    <t>Arm.P.903921</t>
+  </si>
+  <si>
+    <t>Arm.N.903922</t>
+  </si>
+  <si>
+    <t>Arm.E.903923</t>
+  </si>
+  <si>
+    <t>Acop.903924</t>
   </si>
 </sst>
 </file>
@@ -504,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -563,11 +602,32 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="78">
     <dxf>
       <font>
         <b val="0"/>
@@ -602,558 +662,710 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFFF99FF"/>
-      <color rgb="FFFFCCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1168,7 +1380,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1464,20 +1676,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E70C5E-084A-4E8A-943C-C001891657D7}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="56.5546875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="56.5703125" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="56.5546875" style="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="56.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1485,7 +1697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1493,7 +1705,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1501,7 +1713,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -1509,7 +1721,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1518,7 +1730,7 @@
         <v>BIM.Prop</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1527,7 +1739,7 @@
         <v>BIM.Data</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1535,7 +1747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1543,7 +1755,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1551,7 +1763,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -1559,7 +1771,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
@@ -1567,7 +1779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
@@ -1575,7 +1787,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1583,7 +1795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
@@ -1591,7 +1803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -1599,7 +1811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
@@ -1607,21 +1819,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="11">
         <f ca="1">NOW()</f>
-        <v>45379.683482870372</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45380.436839236114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1632,31 +1852,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD98C55-DAEF-4EAA-9319-93A02A868795}">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.21875" style="16" customWidth="1"/>
-    <col min="11" max="11" width="51.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.109375" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="12" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="51.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13">
         <v>1</v>
       </c>
@@ -1672,16 +1892,16 @@
       <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>24</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="14" t="s">
@@ -1691,7 +1911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>2</v>
       </c>
@@ -1707,16 +1927,16 @@
       <c r="E2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="17" t="s">
+      <c r="H2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="15" t="s">
@@ -1727,7 +1947,7 @@
         <v>"Objeto BIM estrutural   ifcFooting:   ifc.Fundação"</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>3</v>
       </c>
@@ -1743,27 +1963,27 @@
       <c r="E3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="17" t="s">
+      <c r="H3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="15" t="s">
         <v>28</v>
       </c>
       <c r="K3" s="8" t="str">
-        <f t="shared" ref="K3:K35" si="0">_xlfn.CONCAT("""","Objeto BIM estrutural   ",C3,":   ",B3,"""")</f>
+        <f t="shared" ref="K3:K37" si="0">_xlfn.CONCAT("""","Objeto BIM estrutural   ",C3,":   ",B3,"""")</f>
         <v>"Objeto BIM estrutural   ifcReinforcingMesh:   ifc.Tela"</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>4</v>
       </c>
@@ -1779,16 +1999,16 @@
       <c r="E4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="17" t="s">
+      <c r="H4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="15" t="s">
@@ -1799,7 +2019,7 @@
         <v>"Objeto BIM estrutural   ifcReinforcingBar:   ifc.Barra"</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>5</v>
       </c>
@@ -1815,16 +2035,16 @@
       <c r="E5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="17" t="s">
+      <c r="H5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J5" s="15" t="s">
@@ -1835,7 +2055,7 @@
         <v>"Objeto BIM estrutural   ifcCoIumn:   ifc.CoIuna"</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>6</v>
       </c>
@@ -1851,16 +2071,16 @@
       <c r="E6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="17" t="s">
+      <c r="H6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J6" s="15" t="s">
@@ -1871,7 +2091,7 @@
         <v>"Objeto BIM estrutural   ifcBeam:   ifc.Viga"</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>7</v>
       </c>
@@ -1887,16 +2107,16 @@
       <c r="E7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="17" t="s">
+      <c r="H7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="15" t="s">
@@ -1907,7 +2127,7 @@
         <v>"Objeto BIM estrutural   ifcSlab:   ifc.Laje"</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>8</v>
       </c>
@@ -1923,16 +2143,16 @@
       <c r="E8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="17" t="s">
+      <c r="H8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="15" t="s">
@@ -1943,7 +2163,7 @@
         <v>"Objeto BIM estrutural   ifcDiscreteAccessory:   ifc.Acessório"</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>9</v>
       </c>
@@ -1959,16 +2179,16 @@
       <c r="E9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="17" t="s">
+      <c r="H9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="15" t="s">
@@ -1979,7 +2199,7 @@
         <v>"Objeto BIM estrutural   ifcTendonAnchor:   ifc.Ancora"</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>10</v>
       </c>
@@ -1995,16 +2215,16 @@
       <c r="E10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="17" t="s">
+      <c r="H10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="15" t="s">
@@ -2015,7 +2235,7 @@
         <v>"Objeto BIM estrutural   ifcFastener:   ifc.Parafuso"</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>11</v>
       </c>
@@ -2031,16 +2251,16 @@
       <c r="E11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="17" t="s">
+      <c r="H11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J11" s="15" t="s">
@@ -2051,7 +2271,7 @@
         <v>"Objeto BIM estrutural   ifcPIate:   ifc.Placa"</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>12</v>
       </c>
@@ -2067,16 +2287,16 @@
       <c r="E12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="17" t="s">
+      <c r="H12" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J12" s="15" t="s">
@@ -2087,7 +2307,7 @@
         <v>"Objeto BIM estrutural   ifcTendon:   ifc.Cabo"</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>13</v>
       </c>
@@ -2103,16 +2323,16 @@
       <c r="E13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="17" t="s">
+      <c r="H13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="15" t="s">
@@ -2123,7 +2343,7 @@
         <v>"Objeto BIM estrutural   ifcMember:   ifc.Membro"</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>14</v>
       </c>
@@ -2139,16 +2359,16 @@
       <c r="E14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="17" t="s">
+      <c r="H14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J14" s="15" t="s">
@@ -2159,7 +2379,7 @@
         <v>"Objeto BIM estrutural   ifcWaII:   ifc.Parede"</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>15</v>
       </c>
@@ -2175,16 +2395,16 @@
       <c r="E15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="17" t="s">
+      <c r="H15" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J15" s="15" t="s">
@@ -2195,7 +2415,7 @@
         <v>"Objeto BIM estrutural   OST_StructuralFoundation:   Rvt.Fundação"</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>16</v>
       </c>
@@ -2211,16 +2431,16 @@
       <c r="E16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="17" t="s">
+      <c r="H16" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J16" s="15" t="s">
@@ -2231,7 +2451,7 @@
         <v>"Objeto BIM estrutural   OST_Coupler:   Rvt.Acoplador"</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="7.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="8.25" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>17</v>
       </c>
@@ -2247,16 +2467,16 @@
       <c r="E17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="17" t="s">
+      <c r="H17" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J17" s="15" t="s">
@@ -2267,7 +2487,7 @@
         <v>"Objeto BIM estrutural   OST_Rebar:   Rvt.Barra"</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>18</v>
       </c>
@@ -2283,16 +2503,16 @@
       <c r="E18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="17" t="s">
+      <c r="H18" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J18" s="15" t="s">
@@ -2303,7 +2523,7 @@
         <v>"Objeto BIM estrutural   OST_FabricReinforcement:   Rvt.Tela"</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>19</v>
       </c>
@@ -2319,16 +2539,16 @@
       <c r="E19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="17" t="s">
+      <c r="H19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J19" s="15" t="s">
@@ -2339,7 +2559,7 @@
         <v>"Objeto BIM estrutural   OST_Columns:   Rvt.ColunaArq"</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>20</v>
       </c>
@@ -2355,16 +2575,16 @@
       <c r="E20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="17" t="s">
+      <c r="H20" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J20" s="15" t="s">
@@ -2375,7 +2595,7 @@
         <v>"Objeto BIM estrutural   OST_StructuralColumns:   Rvt.ColunaEst"</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>21</v>
       </c>
@@ -2391,16 +2611,16 @@
       <c r="E21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="17" t="s">
+      <c r="H21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J21" s="15" t="s">
@@ -2411,7 +2631,7 @@
         <v>"Objeto BIM estrutural   OST_StructuralFraming:   Rvt.Viga"</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>22</v>
       </c>
@@ -2427,16 +2647,16 @@
       <c r="E22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="17" t="s">
+      <c r="H22" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J22" s="15" t="s">
@@ -2447,7 +2667,7 @@
         <v>"Objeto BIM estrutural   OST_Floors:   Rvt.Laje"</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>23</v>
       </c>
@@ -2463,16 +2683,16 @@
       <c r="E23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="17" t="s">
+      <c r="H23" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J23" s="15" t="s">
@@ -2483,7 +2703,7 @@
         <v>"Objeto BIM estrutural   OST_EdgeSlab:   Rvt.LajeBorda"</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>24</v>
       </c>
@@ -2499,16 +2719,16 @@
       <c r="E24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="17" t="s">
+      <c r="H24" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J24" s="15" t="s">
@@ -2519,7 +2739,7 @@
         <v>"Objeto BIM estrutural   OST_StructConnections:   Rvt.Conexão"</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>25</v>
       </c>
@@ -2535,16 +2755,16 @@
       <c r="E25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="17" t="s">
+      <c r="H25" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J25" s="15" t="s">
@@ -2555,7 +2775,7 @@
         <v>"Objeto BIM estrutural   OST_StructConnectionBolts:   Rvt.Parafuso"</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>26</v>
       </c>
@@ -2571,16 +2791,16 @@
       <c r="E26" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="17" t="s">
+      <c r="H26" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J26" s="15" t="s">
@@ -2591,7 +2811,7 @@
         <v>"Objeto BIM estrutural   OST_StructConnectionHoles:   Rvt.Furo"</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>27</v>
       </c>
@@ -2607,16 +2827,16 @@
       <c r="E27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="17" t="s">
+      <c r="H27" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J27" s="15" t="s">
@@ -2627,7 +2847,7 @@
         <v>"Objeto BIM estrutural   OST_StructConnectionProfiles:   Rvt.Perfil"</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>28</v>
       </c>
@@ -2643,16 +2863,16 @@
       <c r="E28" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="17" t="s">
+      <c r="H28" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J28" s="15" t="s">
@@ -2663,7 +2883,7 @@
         <v>"Objeto BIM estrutural   OST_StructConnectionShearStuds:   Rvt.Pino"</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>29</v>
       </c>
@@ -2679,16 +2899,16 @@
       <c r="E29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="17" t="s">
+      <c r="H29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J29" s="15" t="s">
@@ -2699,7 +2919,7 @@
         <v>"Objeto BIM estrutural   OST_StructConnectionWelds:   Rvt.Solda"</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>30</v>
       </c>
@@ -2715,16 +2935,16 @@
       <c r="E30" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="17" t="s">
+      <c r="H30" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J30" s="15" t="s">
@@ -2735,7 +2955,7 @@
         <v>"Objeto BIM estrutural   OST_StructConnectionAnchors:   Rvt.Ancora"</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>31</v>
       </c>
@@ -2751,16 +2971,16 @@
       <c r="E31" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="17" t="s">
+      <c r="H31" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J31" s="15" t="s">
@@ -2771,7 +2991,7 @@
         <v>"Objeto BIM estrutural   OST_StructConnectionPlates:   Rvt.Placa"</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>32</v>
       </c>
@@ -2787,16 +3007,16 @@
       <c r="E32" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="17" t="s">
+      <c r="H32" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J32" s="15" t="s">
@@ -2807,7 +3027,7 @@
         <v>"Objeto BIM estrutural   OST_StructuralStiffener:   Rvt.Enrijecedor"</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>33</v>
       </c>
@@ -2823,16 +3043,16 @@
       <c r="E33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="17" t="s">
+      <c r="H33" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J33" s="15" t="s">
@@ -2843,7 +3063,7 @@
         <v>"Objeto BIM estrutural   OST_StructuralTendons:   Rvt.Cabo"</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>34</v>
       </c>
@@ -2859,16 +3079,16 @@
       <c r="E34" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="17" t="s">
+      <c r="H34" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J34" s="15" t="s">
@@ -2879,7 +3099,7 @@
         <v>"Objeto BIM estrutural   OST_StructuralTruss:   Rvt.Treliça"</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>35</v>
       </c>
@@ -2895,16 +3115,16 @@
       <c r="E35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="17" t="s">
+      <c r="H35" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J35" s="15" t="s">
@@ -2915,186 +3135,407 @@
         <v>"Objeto BIM estrutural   OST_Walls:   Rvt.Parede"</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>36</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="8" t="str">
+        <f t="shared" ref="K36" si="1">_xlfn.CONCAT("""","Objeto BIM estrutural   ",C36,":   ",B36,"""")</f>
+        <v>"Objeto BIM estrutural   El.Estrutural:   Laje.3021203"</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>37</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>"Objeto BIM estrutural   El.Estrutural:   Colu.3021204"</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>38</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H38" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I38" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" s="8" t="str">
+        <f t="shared" ref="K38:K40" si="2">_xlfn.CONCAT("""","Objeto BIM estrutural   ",C38,":   ",B38,"""")</f>
+        <v>"Objeto BIM estrutural   El.Armadura:   Arm.P.903921"</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>39</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="H39" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>"Objeto BIM estrutural   El.Armadura:   Arm.N.903922"</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <v>40</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I40" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>"Objeto BIM estrutural   El.Armadura:   Arm.E.903923"</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>41</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" s="8" t="str">
+        <f t="shared" ref="K41" si="3">_xlfn.CONCAT("""","Objeto BIM estrutural   ",C41,":   ",B41,"""")</f>
+        <v>"Objeto BIM estrutural   El.Armadura:   Acop.903924"</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K17">
     <sortCondition ref="B1:B17"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:B1 D1 L1:XFD1 D2:XFD2 A2:A35 L3:XFD1048576 B18 A36:D54 F36:F1048576 H36:J1048576 A55:B1048576 D55:D1048576">
-    <cfRule type="cellIs" dxfId="58" priority="297" operator="equal">
+  <conditionalFormatting sqref="A1:B1 D1 L1:XFD1 D2:XFD2 A2:A41 L3:XFD1048576 B18 F42:F1048576 H42:J1048576 A56:B1048576 D56:D1048576 A42:D55 B36:C41">
+    <cfRule type="cellIs" dxfId="77" priority="316" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B16">
-    <cfRule type="duplicateValues" dxfId="57" priority="3933"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="3932"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="3936"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="3935"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="3934"/>
+    <cfRule type="duplicateValues" dxfId="76" priority="3952"/>
+    <cfRule type="duplicateValues" dxfId="75" priority="3951"/>
+    <cfRule type="duplicateValues" dxfId="74" priority="3955"/>
+    <cfRule type="duplicateValues" dxfId="73" priority="3954"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="3953"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B16">
-    <cfRule type="duplicateValues" dxfId="52" priority="3937"/>
+    <cfRule type="duplicateValues" dxfId="71" priority="3956"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="51" priority="3973"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="3967"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="3968"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="3969"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="3970"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="3971"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="3972"/>
+    <cfRule type="duplicateValues" dxfId="70" priority="3992"/>
+    <cfRule type="duplicateValues" dxfId="69" priority="3986"/>
+    <cfRule type="duplicateValues" dxfId="68" priority="3987"/>
+    <cfRule type="duplicateValues" dxfId="67" priority="3988"/>
+    <cfRule type="duplicateValues" dxfId="66" priority="3989"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="3990"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="3991"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B18 B1 B55:B1048576">
-    <cfRule type="duplicateValues" dxfId="44" priority="3957"/>
+  <conditionalFormatting sqref="B56:B1048576 B18 B1">
+    <cfRule type="duplicateValues" dxfId="63" priority="3976"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="duplicateValues" dxfId="43" priority="286"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="285"/>
+    <cfRule type="duplicateValues" dxfId="62" priority="305"/>
+    <cfRule type="duplicateValues" dxfId="61" priority="304"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="41" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="60" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="duplicateValues" dxfId="40" priority="3945"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="3944"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="3943"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="3942"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="3941"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="3964"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="3963"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="3962"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="3961"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="3960"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="duplicateValues" dxfId="35" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C16">
-    <cfRule type="duplicateValues" dxfId="34" priority="3946"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="3965"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="33" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="32" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C35">
+    <cfRule type="duplicateValues" dxfId="49" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="duplicateValues" dxfId="48" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C35">
+    <cfRule type="duplicateValues" dxfId="41" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="duplicateValues" dxfId="34" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:C21">
+    <cfRule type="duplicateValues" dxfId="33" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="duplicateValues" dxfId="32" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="duplicateValues" dxfId="31" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
     <cfRule type="duplicateValues" dxfId="30" priority="41"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="duplicateValues" dxfId="29" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="7"/>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="duplicateValues" dxfId="29" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C35">
-    <cfRule type="duplicateValues" dxfId="22" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="40"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="duplicateValues" dxfId="15" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C21">
-    <cfRule type="duplicateValues" dxfId="14" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="duplicateValues" dxfId="13" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="duplicateValues" dxfId="12" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="11" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="duplicateValues" dxfId="10" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3:K35">
-    <cfRule type="cellIs" dxfId="3" priority="227" operator="equal">
+  <conditionalFormatting sqref="J36:K41 H38:H41 D36:F41 D3:K35 H36:I37">
+    <cfRule type="cellIs" dxfId="22" priority="246" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="2" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="314" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="1" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="313" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="0" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="312" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:I39">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I40">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:G41">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Onto_Estrutural/Ontologia_V1_Projeto_Estrutural.xlsx
+++ b/Onto_Estrutural/Ontologia_V1_Projeto_Estrutural.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\Onto_Projeto_Estrutural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE91E5A-F33D-4F00-A6C7-014C2A8E5A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D687209-B33C-44DA-992C-2E1C75080476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="113">
   <si>
     <t>Escopo</t>
   </si>
@@ -288,12 +288,6 @@
     <t>Rvt.Tela</t>
   </si>
   <si>
-    <t>Rvt.ColunaArq</t>
-  </si>
-  <si>
-    <t>Rvt.ColunaEst</t>
-  </si>
-  <si>
     <t>Rvt.Viga</t>
   </si>
   <si>
@@ -360,22 +354,31 @@
     <t>tem.ID</t>
   </si>
   <si>
-    <t>Laje.3021203</t>
-  </si>
-  <si>
-    <t>Colu.3021204</t>
-  </si>
-  <si>
-    <t>Arm.P.903921</t>
-  </si>
-  <si>
-    <t>Arm.N.903922</t>
-  </si>
-  <si>
-    <t>Arm.E.903923</t>
-  </si>
-  <si>
-    <t>Acop.903924</t>
+    <t>Laje.ID.3021203</t>
+  </si>
+  <si>
+    <t>Colu.ID.3021204</t>
+  </si>
+  <si>
+    <t>ArmP.ID.903921</t>
+  </si>
+  <si>
+    <t>ArmN.ID.903922</t>
+  </si>
+  <si>
+    <t>ArmE.ID.903923</t>
+  </si>
+  <si>
+    <t>ArmB.ID.903920</t>
+  </si>
+  <si>
+    <t>Acop.ID.903924</t>
+  </si>
+  <si>
+    <t>Rvt.ColEst</t>
+  </si>
+  <si>
+    <t>Rvt.ColArq</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -599,9 +602,6 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -620,14 +620,14 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="78">
+  <dxfs count="60">
     <dxf>
       <font>
         <b val="0"/>
@@ -678,687 +678,543 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1678,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E70C5E-084A-4E8A-943C-C001891657D7}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="56.5703125" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1825,7 +1681,7 @@
       </c>
       <c r="B17" s="11">
         <f ca="1">NOW()</f>
-        <v>45380.436839236114</v>
+        <v>45381.534665277781</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1838,10 +1694,10 @@
     </row>
     <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1852,31 +1708,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD98C55-DAEF-4EAA-9319-93A02A868795}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="12" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" style="16" customWidth="1"/>
-    <col min="11" max="11" width="51.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="6" style="23" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="23" customWidth="1"/>
+    <col min="9" max="9" width="9" style="23" customWidth="1"/>
+    <col min="10" max="21" width="3.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.28515625" style="16" customWidth="1"/>
+    <col min="23" max="23" width="51.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.140625" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13">
         <v>1</v>
       </c>
@@ -1886,13 +1743,13 @@
       <c r="C1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="14" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="14" t="s">
         <v>24</v>
       </c>
       <c r="G1" s="7" t="s">
@@ -1904,14 +1761,26 @@
       <c r="I1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>2</v>
       </c>
@@ -1921,33 +1790,69 @@
       <c r="C2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="15" t="s">
+      <c r="H2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="8" t="str">
+      <c r="W2" s="8" t="str">
         <f>_xlfn.CONCAT("""","Objeto BIM estrutural   ",C2,":   ",B2,"""")</f>
         <v>"Objeto BIM estrutural   ifcFooting:   ifc.Fundação"</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>3</v>
       </c>
@@ -1957,33 +1862,69 @@
       <c r="C3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="15" t="s">
+      <c r="H3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="8" t="str">
-        <f t="shared" ref="K3:K37" si="0">_xlfn.CONCAT("""","Objeto BIM estrutural   ",C3,":   ",B3,"""")</f>
+      <c r="W3" s="8" t="str">
+        <f t="shared" ref="W3:W35" si="0">_xlfn.CONCAT("""","Objeto BIM estrutural   ",C3,":   ",B3,"""")</f>
         <v>"Objeto BIM estrutural   ifcReinforcingMesh:   ifc.Tela"</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>4</v>
       </c>
@@ -1993,33 +1934,69 @@
       <c r="C4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="15" t="s">
+      <c r="H4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="8" t="str">
+      <c r="W4" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   ifcReinforcingBar:   ifc.Barra"</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>5</v>
       </c>
@@ -2029,33 +2006,69 @@
       <c r="C5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="15" t="s">
+      <c r="H5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="8" t="str">
+      <c r="W5" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   ifcCoIumn:   ifc.CoIuna"</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>6</v>
       </c>
@@ -2065,33 +2078,69 @@
       <c r="C6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="15" t="s">
+      <c r="H6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S6" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U6" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="8" t="str">
+      <c r="W6" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   ifcBeam:   ifc.Viga"</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>7</v>
       </c>
@@ -2101,33 +2150,69 @@
       <c r="C7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="15" t="s">
+      <c r="H7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U7" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="8" t="str">
+      <c r="W7" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   ifcSlab:   ifc.Laje"</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>8</v>
       </c>
@@ -2137,33 +2222,69 @@
       <c r="C8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="15" t="s">
+      <c r="H8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="8" t="str">
+      <c r="W8" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   ifcDiscreteAccessory:   ifc.Acessório"</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>9</v>
       </c>
@@ -2173,33 +2294,69 @@
       <c r="C9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="15" t="s">
+      <c r="H9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U9" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="8" t="str">
+      <c r="W9" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   ifcTendonAnchor:   ifc.Ancora"</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>10</v>
       </c>
@@ -2209,33 +2366,69 @@
       <c r="C10" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="15" t="s">
+      <c r="H10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U10" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="8" t="str">
+      <c r="W10" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   ifcFastener:   ifc.Parafuso"</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>11</v>
       </c>
@@ -2245,33 +2438,69 @@
       <c r="C11" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="15" t="s">
+      <c r="H11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S11" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U11" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="8" t="str">
+      <c r="W11" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   ifcPIate:   ifc.Placa"</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>12</v>
       </c>
@@ -2281,33 +2510,69 @@
       <c r="C12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="15" t="s">
+      <c r="H12" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="8" t="str">
+      <c r="W12" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   ifcTendon:   ifc.Cabo"</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>13</v>
       </c>
@@ -2317,33 +2582,69 @@
       <c r="C13" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="15" t="s">
+      <c r="H13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q13" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S13" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U13" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="8" t="str">
+      <c r="W13" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   ifcMember:   ifc.Membro"</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>14</v>
       </c>
@@ -2353,33 +2654,69 @@
       <c r="C14" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="15" t="s">
+      <c r="H14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O14" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S14" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U14" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="8" t="str">
+      <c r="W14" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   ifcWaII:   ifc.Parede"</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>15</v>
       </c>
@@ -2389,33 +2726,69 @@
       <c r="C15" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="15" t="s">
+      <c r="H15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S15" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U15" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V15" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="8" t="str">
+      <c r="W15" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   OST_StructuralFoundation:   Rvt.Fundação"</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>16</v>
       </c>
@@ -2425,33 +2798,69 @@
       <c r="C16" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="15" t="s">
+      <c r="H16" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q16" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S16" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U16" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="8" t="str">
+      <c r="W16" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   OST_Coupler:   Rvt.Acoplador"</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="8.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="8.25" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>17</v>
       </c>
@@ -2461,33 +2870,69 @@
       <c r="C17" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H17" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J17" s="15" t="s">
+      <c r="H17" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q17" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S17" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U17" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V17" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="8" t="str">
+      <c r="W17" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   OST_Rebar:   Rvt.Barra"</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>18</v>
       </c>
@@ -2497,879 +2942,1812 @@
       <c r="C18" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="15" t="s">
+      <c r="H18" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O18" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S18" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U18" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V18" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="8" t="str">
+      <c r="W18" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   OST_FabricReinforcement:   Rvt.Tela"</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>19</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J19" s="15" t="s">
+      <c r="H19" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O19" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S19" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U19" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V19" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="8" t="str">
+      <c r="W19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM estrutural   OST_Columns:   Rvt.ColunaArq"</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>"Objeto BIM estrutural   OST_Columns:   Rvt.ColArq"</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J20" s="15" t="s">
+      <c r="H20" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q20" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S20" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U20" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="8" t="str">
+      <c r="W20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM estrutural   OST_StructuralColumns:   Rvt.ColunaEst"</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>"Objeto BIM estrutural   OST_StructuralColumns:   Rvt.ColEst"</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>21</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J21" s="15" t="s">
+      <c r="H21" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q21" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S21" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T21" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U21" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V21" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K21" s="8" t="str">
+      <c r="W21" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   OST_StructuralFraming:   Rvt.Viga"</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>22</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H22" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J22" s="15" t="s">
+      <c r="H22" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O22" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q22" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S22" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U22" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V22" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="8" t="str">
+      <c r="W22" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   OST_Floors:   Rvt.Laje"</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>23</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J23" s="15" t="s">
+      <c r="H23" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M23" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q23" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S23" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T23" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U23" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V23" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="8" t="str">
+      <c r="W23" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   OST_EdgeSlab:   Rvt.LajeBorda"</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>24</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24" s="15" t="s">
+      <c r="H24" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O24" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S24" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U24" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V24" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="8" t="str">
+      <c r="W24" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   OST_StructConnections:   Rvt.Conexão"</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>25</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="15" t="s">
+      <c r="H25" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M25" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O25" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q25" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R25" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S25" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T25" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U25" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V25" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="8" t="str">
+      <c r="W25" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   OST_StructConnectionBolts:   Rvt.Parafuso"</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>26</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="15" t="s">
+      <c r="H26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M26" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O26" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q26" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R26" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S26" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T26" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U26" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V26" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K26" s="8" t="str">
+      <c r="W26" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   OST_StructConnectionHoles:   Rvt.Furo"</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>27</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J27" s="15" t="s">
+      <c r="H27" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O27" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R27" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S27" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T27" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U27" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V27" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="8" t="str">
+      <c r="W27" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   OST_StructConnectionProfiles:   Rvt.Perfil"</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>28</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" s="15" t="s">
+      <c r="H28" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M28" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O28" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q28" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R28" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S28" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T28" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U28" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V28" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K28" s="8" t="str">
+      <c r="W28" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   OST_StructConnectionShearStuds:   Rvt.Pino"</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>29</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" s="15" t="s">
+      <c r="H29" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O29" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q29" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S29" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T29" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U29" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V29" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K29" s="8" t="str">
+      <c r="W29" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   OST_StructConnectionWelds:   Rvt.Solda"</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>30</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="26" t="s">
+      <c r="F30" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J30" s="15" t="s">
+      <c r="H30" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M30" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O30" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P30" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q30" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R30" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S30" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T30" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U30" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V30" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K30" s="8" t="str">
+      <c r="W30" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   OST_StructConnectionAnchors:   Rvt.Ancora"</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>31</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J31" s="15" t="s">
+      <c r="H31" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L31" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O31" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S31" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U31" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V31" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="8" t="str">
+      <c r="W31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   OST_StructConnectionPlates:   Rvt.Placa"</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>32</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="15" t="s">
+      <c r="H32" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L32" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M32" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O32" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q32" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S32" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U32" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V32" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="8" t="str">
+      <c r="W32" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   OST_StructuralStiffener:   Rvt.Enrijecedor"</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>33</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H33" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J33" s="15" t="s">
+      <c r="H33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M33" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O33" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P33" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q33" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R33" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S33" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T33" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U33" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V33" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K33" s="8" t="str">
+      <c r="W33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   OST_StructuralTendons:   Rvt.Cabo"</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E34" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G34" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J34" s="15" t="s">
+      <c r="H34" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M34" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N34" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O34" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P34" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q34" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R34" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S34" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T34" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U34" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V34" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K34" s="8" t="str">
+      <c r="W34" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   OST_StructuralTruss:   Rvt.Treliça"</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>35</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="21" t="s">
         <v>13</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="21" t="s">
         <v>13</v>
       </c>
       <c r="G35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J35" s="15" t="s">
+      <c r="H35" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M35" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O35" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P35" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R35" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S35" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T35" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U35" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V35" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K35" s="8" t="str">
+      <c r="W35" s="8" t="str">
         <f t="shared" si="0"/>
         <v>"Objeto BIM estrutural   OST_Walls:   Rvt.Parede"</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>36</v>
       </c>
-      <c r="B36" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="19" t="s">
+      <c r="B36" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>99</v>
       </c>
+      <c r="D36" s="21" t="s">
+        <v>97</v>
+      </c>
       <c r="E36" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="H36" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J36" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M36" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N36" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O36" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P36" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q36" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R36" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S36" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T36" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U36" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V36" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K36" s="8" t="str">
-        <f t="shared" ref="K36" si="1">_xlfn.CONCAT("""","Objeto BIM estrutural   ",C36,":   ",B36,"""")</f>
-        <v>"Objeto BIM estrutural   El.Estrutural:   Laje.3021203"</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W36" s="8" t="str">
+        <f>_xlfn.CONCAT("""","Projeto estrutural. Usa o ID do elemento  ",C36,":   ",B36,"""")</f>
+        <v>"Projeto estrutural. Usa o ID do elemento  El.Estrutural:   Laje.ID.3021203"</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>37</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="19" t="s">
+      <c r="B37" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="20" t="s">
         <v>99</v>
       </c>
+      <c r="D37" s="21" t="s">
+        <v>97</v>
+      </c>
       <c r="E37" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="F37" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="G37" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="J37" s="15" t="s">
+      <c r="H37" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M37" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N37" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O37" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P37" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q37" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R37" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S37" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T37" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U37" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V37" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K37" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>"Objeto BIM estrutural   El.Estrutural:   Colu.3021204"</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W37" s="8" t="str">
+        <f t="shared" ref="W37:W42" si="1">_xlfn.CONCAT("""","Projeto estrutural. Usa o ID do elemento  ",C37,":   ",B37,"""")</f>
+        <v>"Projeto estrutural. Usa o ID do elemento  El.Estrutural:   Colu.ID.3021204"</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>38</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>99</v>
+      <c r="B38" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="F38" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="H38" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="I38" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="J38" s="15" t="s">
+      <c r="F38" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I38" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="J38" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L38" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M38" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N38" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O38" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P38" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q38" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R38" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S38" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T38" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U38" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V38" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K38" s="8" t="str">
-        <f t="shared" ref="K38:K40" si="2">_xlfn.CONCAT("""","Objeto BIM estrutural   ",C38,":   ",B38,"""")</f>
-        <v>"Objeto BIM estrutural   El.Armadura:   Arm.P.903921"</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W38" s="8" t="str">
+        <f t="shared" ref="W38" si="2">_xlfn.CONCAT("""","Projeto estrutural. Usa o ID do elemento  ",C38,":   ",B38,"""")</f>
+        <v>"Projeto estrutural. Usa o ID do elemento  El.Armadura:   ArmB.ID.903920"</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>39</v>
       </c>
-      <c r="B39" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>99</v>
+      <c r="B39" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="E39" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="F39" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="G39" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="H39" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="I39" s="25" t="s">
+      <c r="F39" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G39" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="J39" s="15" t="s">
+      <c r="H39" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I39" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L39" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M39" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N39" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O39" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P39" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q39" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R39" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S39" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T39" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U39" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V39" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K39" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>"Objeto BIM estrutural   El.Armadura:   Arm.N.903922"</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W39" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>"Projeto estrutural. Usa o ID do elemento  El.Armadura:   ArmP.ID.903921"</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>40</v>
       </c>
-      <c r="B40" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>99</v>
+      <c r="B40" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="E40" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="H40" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="I40" s="25" t="s">
+      <c r="F40" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="J40" s="15" t="s">
+      <c r="H40" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I40" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="J40" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L40" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M40" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N40" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O40" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P40" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q40" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R40" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S40" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T40" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U40" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V40" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K40" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>"Objeto BIM estrutural   El.Armadura:   Arm.E.903923"</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W40" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>"Projeto estrutural. Usa o ID do elemento  El.Armadura:   ArmN.ID.903922"</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>41</v>
       </c>
-      <c r="B41" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>99</v>
+      <c r="B41" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="E41" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F41" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I41" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="G41" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="I41" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="J41" s="15" t="s">
+      <c r="J41" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L41" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M41" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N41" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O41" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P41" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q41" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R41" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S41" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T41" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U41" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V41" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K41" s="8" t="str">
-        <f t="shared" ref="K41" si="3">_xlfn.CONCAT("""","Objeto BIM estrutural   ",C41,":   ",B41,"""")</f>
-        <v>"Objeto BIM estrutural   El.Armadura:   Acop.903924"</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W41" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>"Projeto estrutural. Usa o ID do elemento  El.Armadura:   ArmE.ID.903923"</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="13">
+        <v>42</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="I42" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="J42" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L42" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M42" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N42" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="O42" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P42" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q42" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R42" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S42" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T42" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U42" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V42" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W42" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>"Projeto estrutural. Usa o ID do elemento  El.Armadura:   Acop.ID.903924"</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3393,149 +4771,137 @@
     <row r="55" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
     </row>
+    <row r="56" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K17">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W17">
     <sortCondition ref="B1:B17"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:B1 D1 L1:XFD1 D2:XFD2 A2:A41 L3:XFD1048576 B18 F42:F1048576 H42:J1048576 A56:B1048576 D56:D1048576 A42:D55 B36:C41">
-    <cfRule type="cellIs" dxfId="77" priority="316" operator="equal">
+  <conditionalFormatting sqref="A1:B1 D1 X1:XFD1 B18 A43:D56 F43:F1048576 A57:B1048576 D57:D1048576 D2:I2 V2:XFD2 H43:M1048576 R43:V1048576 N39:Q1048576 R39:U42 J39:M42 X3:XFD1048576 J2:U38 A2:A42">
+    <cfRule type="cellIs" dxfId="0" priority="317" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B16">
-    <cfRule type="duplicateValues" dxfId="76" priority="3952"/>
-    <cfRule type="duplicateValues" dxfId="75" priority="3951"/>
-    <cfRule type="duplicateValues" dxfId="74" priority="3955"/>
-    <cfRule type="duplicateValues" dxfId="73" priority="3954"/>
-    <cfRule type="duplicateValues" dxfId="72" priority="3953"/>
+    <cfRule type="duplicateValues" dxfId="59" priority="3952"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="3953"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="3954"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="3955"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="3956"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B16">
-    <cfRule type="duplicateValues" dxfId="71" priority="3956"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="3957"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="70" priority="3992"/>
-    <cfRule type="duplicateValues" dxfId="69" priority="3986"/>
-    <cfRule type="duplicateValues" dxfId="68" priority="3987"/>
-    <cfRule type="duplicateValues" dxfId="67" priority="3988"/>
-    <cfRule type="duplicateValues" dxfId="66" priority="3989"/>
-    <cfRule type="duplicateValues" dxfId="65" priority="3990"/>
-    <cfRule type="duplicateValues" dxfId="64" priority="3991"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="3987"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="3988"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="3989"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="3990"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="3991"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="3992"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="3993"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B56:B1048576 B18 B1">
-    <cfRule type="duplicateValues" dxfId="63" priority="3976"/>
+  <conditionalFormatting sqref="B57:B1048576 B18 B1">
+    <cfRule type="duplicateValues" dxfId="46" priority="3977"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="duplicateValues" dxfId="62" priority="305"/>
-    <cfRule type="duplicateValues" dxfId="61" priority="304"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="305"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="306"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="60" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="duplicateValues" dxfId="59" priority="3964"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="3963"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="3962"/>
-    <cfRule type="duplicateValues" dxfId="56" priority="3961"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="3960"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="3961"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="3962"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="3963"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="3964"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="3965"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="duplicateValues" dxfId="54" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C16">
-    <cfRule type="duplicateValues" dxfId="53" priority="3965"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="3966"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="52" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="51" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="50" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C35">
-    <cfRule type="duplicateValues" dxfId="49" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="duplicateValues" dxfId="48" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C35">
-    <cfRule type="duplicateValues" dxfId="41" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="duplicateValues" dxfId="34" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:C21">
-    <cfRule type="duplicateValues" dxfId="33" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="duplicateValues" dxfId="32" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="duplicateValues" dxfId="31" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="30" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="duplicateValues" dxfId="29" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="49"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J36:K41 H38:H41 D36:F41 D3:K35 H36:I37">
-    <cfRule type="cellIs" dxfId="22" priority="246" operator="equal">
+  <conditionalFormatting sqref="D3:I35">
+    <cfRule type="cellIs" dxfId="5" priority="247" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="21" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="315" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="20" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="314" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="19" priority="312" operator="equal">
+  <conditionalFormatting sqref="V1">
+    <cfRule type="cellIs" dxfId="2" priority="313" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I38:I39">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I41">
+  <conditionalFormatting sqref="V3:W42 B36:I42">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36:G41">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Onto_Estrutural/Ontologia_V1_Projeto_Estrutural.xlsx
+++ b/Onto_Estrutural/Ontologia_V1_Projeto_Estrutural.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\Onto_Projeto_Estrutural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D687209-B33C-44DA-992C-2E1C75080476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1681F4-6FFD-4441-8DA5-AAFBBBBE3423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="121">
   <si>
     <t>Escopo</t>
   </si>
@@ -379,6 +379,30 @@
   </si>
   <si>
     <t>Rvt.ColArq</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>"Laje_Básica"</t>
+  </si>
+  <si>
+    <t>"Coluna_20x20"</t>
+  </si>
+  <si>
+    <t>"Barra_b1"</t>
+  </si>
+  <si>
+    <t>"Barra_P1"</t>
+  </si>
+  <si>
+    <t>"Barra_N1"</t>
+  </si>
+  <si>
+    <t>"Barra_E1"</t>
+  </si>
+  <si>
+    <t>"Acop_P1"</t>
   </si>
 </sst>
 </file>
@@ -546,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -623,6 +647,9 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -670,551 +697,551 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1236,7 +1263,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1534,18 +1561,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E70C5E-084A-4E8A-943C-C001891657D7}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="56.5703125" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="56.5546875" defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="56.5703125" style="1"/>
+    <col min="1" max="1" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="56.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1553,7 +1580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1561,7 +1588,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -1569,7 +1596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -1577,7 +1604,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1586,7 +1613,7 @@
         <v>BIM.Prop</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -1595,7 +1622,7 @@
         <v>BIM.Data</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1603,7 +1630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -1611,7 +1638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1619,7 +1646,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -1627,7 +1654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
@@ -1635,7 +1662,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
@@ -1643,7 +1670,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1651,7 +1678,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
@@ -1659,7 +1686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -1667,7 +1694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
@@ -1675,16 +1702,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="11">
         <f ca="1">NOW()</f>
-        <v>45381.534665277781</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45383.290561458336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>27</v>
       </c>
@@ -1692,7 +1719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>101</v>
       </c>
@@ -1710,30 +1737,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD98C55-DAEF-4EAA-9319-93A02A868795}">
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A42"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="12" customWidth="1"/>
     <col min="4" max="4" width="6" style="23" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="23" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" style="23" customWidth="1"/>
-    <col min="9" max="9" width="9" style="23" customWidth="1"/>
-    <col min="10" max="21" width="3.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.28515625" style="16" customWidth="1"/>
-    <col min="23" max="23" width="51.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.140625" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="5.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.5546875" style="23" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.44140625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="23" customWidth="1"/>
+    <col min="10" max="13" width="3.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="3.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.33203125" style="16" customWidth="1"/>
+    <col min="23" max="23" width="51.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.109375" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13">
         <v>1</v>
       </c>
@@ -1766,7 +1796,7 @@
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
+      <c r="O1" s="6"/>
       <c r="P1" s="14"/>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
@@ -1780,7 +1810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13">
         <v>2</v>
       </c>
@@ -1823,7 +1853,7 @@
       <c r="N2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P2" s="15" t="s">
@@ -1852,7 +1882,7 @@
         <v>"Objeto BIM estrutural   ifcFooting:   ifc.Fundação"</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>3</v>
       </c>
@@ -1895,7 +1925,7 @@
       <c r="N3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P3" s="15" t="s">
@@ -1924,7 +1954,7 @@
         <v>"Objeto BIM estrutural   ifcReinforcingMesh:   ifc.Tela"</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>4</v>
       </c>
@@ -1967,7 +1997,7 @@
       <c r="N4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P4" s="15" t="s">
@@ -1996,7 +2026,7 @@
         <v>"Objeto BIM estrutural   ifcReinforcingBar:   ifc.Barra"</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>5</v>
       </c>
@@ -2039,7 +2069,7 @@
       <c r="N5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="O5" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P5" s="15" t="s">
@@ -2068,7 +2098,7 @@
         <v>"Objeto BIM estrutural   ifcCoIumn:   ifc.CoIuna"</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="7.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>6</v>
       </c>
@@ -2111,7 +2141,7 @@
       <c r="N6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="25" t="s">
+      <c r="O6" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P6" s="15" t="s">
@@ -2140,7 +2170,7 @@
         <v>"Objeto BIM estrutural   ifcBeam:   ifc.Viga"</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>7</v>
       </c>
@@ -2183,7 +2213,7 @@
       <c r="N7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="25" t="s">
+      <c r="O7" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P7" s="15" t="s">
@@ -2212,7 +2242,7 @@
         <v>"Objeto BIM estrutural   ifcSlab:   ifc.Laje"</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>8</v>
       </c>
@@ -2255,7 +2285,7 @@
       <c r="N8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="25" t="s">
+      <c r="O8" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P8" s="15" t="s">
@@ -2284,7 +2314,7 @@
         <v>"Objeto BIM estrutural   ifcDiscreteAccessory:   ifc.Acessório"</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>9</v>
       </c>
@@ -2327,7 +2357,7 @@
       <c r="N9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="O9" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P9" s="15" t="s">
@@ -2356,7 +2386,7 @@
         <v>"Objeto BIM estrutural   ifcTendonAnchor:   ifc.Ancora"</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>10</v>
       </c>
@@ -2399,7 +2429,7 @@
       <c r="N10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="25" t="s">
+      <c r="O10" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P10" s="15" t="s">
@@ -2428,7 +2458,7 @@
         <v>"Objeto BIM estrutural   ifcFastener:   ifc.Parafuso"</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>11</v>
       </c>
@@ -2471,7 +2501,7 @@
       <c r="N11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="25" t="s">
+      <c r="O11" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P11" s="15" t="s">
@@ -2500,7 +2530,7 @@
         <v>"Objeto BIM estrutural   ifcPIate:   ifc.Placa"</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>12</v>
       </c>
@@ -2543,7 +2573,7 @@
       <c r="N12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O12" s="25" t="s">
+      <c r="O12" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P12" s="15" t="s">
@@ -2572,7 +2602,7 @@
         <v>"Objeto BIM estrutural   ifcTendon:   ifc.Cabo"</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>13</v>
       </c>
@@ -2615,7 +2645,7 @@
       <c r="N13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="25" t="s">
+      <c r="O13" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P13" s="15" t="s">
@@ -2644,7 +2674,7 @@
         <v>"Objeto BIM estrutural   ifcMember:   ifc.Membro"</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>14</v>
       </c>
@@ -2687,7 +2717,7 @@
       <c r="N14" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="25" t="s">
+      <c r="O14" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P14" s="15" t="s">
@@ -2716,7 +2746,7 @@
         <v>"Objeto BIM estrutural   ifcWaII:   ifc.Parede"</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>15</v>
       </c>
@@ -2759,7 +2789,7 @@
       <c r="N15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O15" s="25" t="s">
+      <c r="O15" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P15" s="15" t="s">
@@ -2788,7 +2818,7 @@
         <v>"Objeto BIM estrutural   OST_StructuralFoundation:   Rvt.Fundação"</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>16</v>
       </c>
@@ -2831,7 +2861,7 @@
       <c r="N16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="25" t="s">
+      <c r="O16" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P16" s="15" t="s">
@@ -2860,7 +2890,7 @@
         <v>"Objeto BIM estrutural   OST_Coupler:   Rvt.Acoplador"</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="8.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="7.8" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>17</v>
       </c>
@@ -2903,7 +2933,7 @@
       <c r="N17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O17" s="25" t="s">
+      <c r="O17" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P17" s="15" t="s">
@@ -2932,7 +2962,7 @@
         <v>"Objeto BIM estrutural   OST_Rebar:   Rvt.Barra"</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>18</v>
       </c>
@@ -2975,7 +3005,7 @@
       <c r="N18" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O18" s="25" t="s">
+      <c r="O18" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P18" s="15" t="s">
@@ -3004,7 +3034,7 @@
         <v>"Objeto BIM estrutural   OST_FabricReinforcement:   Rvt.Tela"</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>19</v>
       </c>
@@ -3047,7 +3077,7 @@
       <c r="N19" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O19" s="25" t="s">
+      <c r="O19" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P19" s="15" t="s">
@@ -3076,7 +3106,7 @@
         <v>"Objeto BIM estrutural   OST_Columns:   Rvt.ColArq"</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>20</v>
       </c>
@@ -3119,7 +3149,7 @@
       <c r="N20" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O20" s="25" t="s">
+      <c r="O20" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P20" s="15" t="s">
@@ -3148,7 +3178,7 @@
         <v>"Objeto BIM estrutural   OST_StructuralColumns:   Rvt.ColEst"</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>21</v>
       </c>
@@ -3191,7 +3221,7 @@
       <c r="N21" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O21" s="25" t="s">
+      <c r="O21" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P21" s="15" t="s">
@@ -3220,7 +3250,7 @@
         <v>"Objeto BIM estrutural   OST_StructuralFraming:   Rvt.Viga"</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>22</v>
       </c>
@@ -3263,7 +3293,7 @@
       <c r="N22" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O22" s="25" t="s">
+      <c r="O22" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P22" s="15" t="s">
@@ -3292,7 +3322,7 @@
         <v>"Objeto BIM estrutural   OST_Floors:   Rvt.Laje"</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>23</v>
       </c>
@@ -3335,7 +3365,7 @@
       <c r="N23" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O23" s="25" t="s">
+      <c r="O23" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P23" s="15" t="s">
@@ -3364,7 +3394,7 @@
         <v>"Objeto BIM estrutural   OST_EdgeSlab:   Rvt.LajeBorda"</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>24</v>
       </c>
@@ -3407,7 +3437,7 @@
       <c r="N24" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O24" s="25" t="s">
+      <c r="O24" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P24" s="15" t="s">
@@ -3436,7 +3466,7 @@
         <v>"Objeto BIM estrutural   OST_StructConnections:   Rvt.Conexão"</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>25</v>
       </c>
@@ -3479,7 +3509,7 @@
       <c r="N25" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O25" s="25" t="s">
+      <c r="O25" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P25" s="15" t="s">
@@ -3508,7 +3538,7 @@
         <v>"Objeto BIM estrutural   OST_StructConnectionBolts:   Rvt.Parafuso"</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>26</v>
       </c>
@@ -3551,7 +3581,7 @@
       <c r="N26" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O26" s="25" t="s">
+      <c r="O26" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P26" s="15" t="s">
@@ -3580,7 +3610,7 @@
         <v>"Objeto BIM estrutural   OST_StructConnectionHoles:   Rvt.Furo"</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>27</v>
       </c>
@@ -3623,7 +3653,7 @@
       <c r="N27" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O27" s="25" t="s">
+      <c r="O27" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P27" s="15" t="s">
@@ -3652,7 +3682,7 @@
         <v>"Objeto BIM estrutural   OST_StructConnectionProfiles:   Rvt.Perfil"</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>28</v>
       </c>
@@ -3695,7 +3725,7 @@
       <c r="N28" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O28" s="25" t="s">
+      <c r="O28" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P28" s="15" t="s">
@@ -3724,7 +3754,7 @@
         <v>"Objeto BIM estrutural   OST_StructConnectionShearStuds:   Rvt.Pino"</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>29</v>
       </c>
@@ -3767,7 +3797,7 @@
       <c r="N29" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O29" s="25" t="s">
+      <c r="O29" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P29" s="15" t="s">
@@ -3796,7 +3826,7 @@
         <v>"Objeto BIM estrutural   OST_StructConnectionWelds:   Rvt.Solda"</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>30</v>
       </c>
@@ -3839,7 +3869,7 @@
       <c r="N30" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O30" s="25" t="s">
+      <c r="O30" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P30" s="15" t="s">
@@ -3868,7 +3898,7 @@
         <v>"Objeto BIM estrutural   OST_StructConnectionAnchors:   Rvt.Ancora"</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>31</v>
       </c>
@@ -3911,7 +3941,7 @@
       <c r="N31" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O31" s="25" t="s">
+      <c r="O31" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P31" s="15" t="s">
@@ -3940,7 +3970,7 @@
         <v>"Objeto BIM estrutural   OST_StructConnectionPlates:   Rvt.Placa"</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <v>32</v>
       </c>
@@ -3983,7 +4013,7 @@
       <c r="N32" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O32" s="25" t="s">
+      <c r="O32" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P32" s="15" t="s">
@@ -4012,7 +4042,7 @@
         <v>"Objeto BIM estrutural   OST_StructuralStiffener:   Rvt.Enrijecedor"</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>33</v>
       </c>
@@ -4055,7 +4085,7 @@
       <c r="N33" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O33" s="25" t="s">
+      <c r="O33" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P33" s="15" t="s">
@@ -4084,7 +4114,7 @@
         <v>"Objeto BIM estrutural   OST_StructuralTendons:   Rvt.Cabo"</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>34</v>
       </c>
@@ -4127,7 +4157,7 @@
       <c r="N34" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O34" s="25" t="s">
+      <c r="O34" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P34" s="15" t="s">
@@ -4156,7 +4186,7 @@
         <v>"Objeto BIM estrutural   OST_StructuralTruss:   Rvt.Treliça"</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>35</v>
       </c>
@@ -4199,7 +4229,7 @@
       <c r="N35" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O35" s="25" t="s">
+      <c r="O35" s="26" t="s">
         <v>13</v>
       </c>
       <c r="P35" s="15" t="s">
@@ -4228,7 +4258,7 @@
         <v>"Objeto BIM estrutural   OST_Walls:   Rvt.Parede"</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>36</v>
       </c>
@@ -4269,10 +4299,10 @@
         <v>13</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O36" s="25" t="s">
-        <v>13</v>
+        <v>113</v>
+      </c>
+      <c r="O36" s="26" t="s">
+        <v>114</v>
       </c>
       <c r="P36" s="15" t="s">
         <v>13</v>
@@ -4300,7 +4330,7 @@
         <v>"Projeto estrutural. Usa o ID do elemento  El.Estrutural:   Laje.ID.3021203"</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>37</v>
       </c>
@@ -4341,10 +4371,10 @@
         <v>13</v>
       </c>
       <c r="N37" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O37" s="25" t="s">
-        <v>13</v>
+        <v>113</v>
+      </c>
+      <c r="O37" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="P37" s="15" t="s">
         <v>13</v>
@@ -4372,7 +4402,7 @@
         <v>"Projeto estrutural. Usa o ID do elemento  El.Estrutural:   Colu.ID.3021204"</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>38</v>
       </c>
@@ -4413,10 +4443,10 @@
         <v>13</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O38" s="25" t="s">
-        <v>13</v>
+        <v>113</v>
+      </c>
+      <c r="O38" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="P38" s="15" t="s">
         <v>13</v>
@@ -4444,7 +4474,7 @@
         <v>"Projeto estrutural. Usa o ID do elemento  El.Armadura:   ArmB.ID.903920"</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>39</v>
       </c>
@@ -4485,10 +4515,10 @@
         <v>13</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O39" s="25" t="s">
-        <v>13</v>
+        <v>113</v>
+      </c>
+      <c r="O39" s="26" t="s">
+        <v>117</v>
       </c>
       <c r="P39" s="15" t="s">
         <v>13</v>
@@ -4516,7 +4546,7 @@
         <v>"Projeto estrutural. Usa o ID do elemento  El.Armadura:   ArmP.ID.903921"</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>40</v>
       </c>
@@ -4557,10 +4587,10 @@
         <v>13</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O40" s="25" t="s">
-        <v>13</v>
+        <v>113</v>
+      </c>
+      <c r="O40" s="26" t="s">
+        <v>118</v>
       </c>
       <c r="P40" s="15" t="s">
         <v>13</v>
@@ -4588,7 +4618,7 @@
         <v>"Projeto estrutural. Usa o ID do elemento  El.Armadura:   ArmN.ID.903922"</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>41</v>
       </c>
@@ -4629,10 +4659,10 @@
         <v>13</v>
       </c>
       <c r="N41" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O41" s="25" t="s">
-        <v>13</v>
+        <v>113</v>
+      </c>
+      <c r="O41" s="26" t="s">
+        <v>119</v>
       </c>
       <c r="P41" s="15" t="s">
         <v>13</v>
@@ -4660,7 +4690,7 @@
         <v>"Projeto estrutural. Usa o ID do elemento  El.Armadura:   ArmE.ID.903923"</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>42</v>
       </c>
@@ -4701,10 +4731,10 @@
         <v>13</v>
       </c>
       <c r="N42" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="O42" s="25" t="s">
-        <v>13</v>
+        <v>113</v>
+      </c>
+      <c r="O42" s="26" t="s">
+        <v>120</v>
       </c>
       <c r="P42" s="15" t="s">
         <v>13</v>
@@ -4732,46 +4762,46 @@
         <v>"Projeto estrutural. Usa o ID do elemento  El.Armadura:   Acop.ID.903924"</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="2"/>
     </row>
   </sheetData>
@@ -4779,129 +4809,129 @@
     <sortCondition ref="B1:B17"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:B1 D1 X1:XFD1 B18 A43:D56 F43:F1048576 A57:B1048576 D57:D1048576 D2:I2 V2:XFD2 H43:M1048576 R43:V1048576 N39:Q1048576 R39:U42 J39:M42 X3:XFD1048576 J2:U38 A2:A42">
-    <cfRule type="cellIs" dxfId="0" priority="317" operator="equal">
+  <conditionalFormatting sqref="A1:B1 D1 X1:XFD1 V2:XFD2 A2:A42 X3:XFD1048576 B18 A43:D56 F43:F1048576 H43:V1048576 A57:B1048576 D57:D1048576 J2:U42">
+    <cfRule type="cellIs" dxfId="59" priority="317" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B16">
-    <cfRule type="duplicateValues" dxfId="59" priority="3952"/>
-    <cfRule type="duplicateValues" dxfId="58" priority="3953"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="3954"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="3952"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="3956"/>
     <cfRule type="duplicateValues" dxfId="56" priority="3955"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="3956"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="3954"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="3953"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B16">
-    <cfRule type="duplicateValues" dxfId="54" priority="3957"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="3957"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="53" priority="3987"/>
-    <cfRule type="duplicateValues" dxfId="52" priority="3988"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="3989"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="3990"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="3991"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="3992"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="3993"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="3993"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="3988"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="3987"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="3989"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="3990"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="3991"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="3992"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:B1048576 B18 B1">
-    <cfRule type="duplicateValues" dxfId="46" priority="3977"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="3977"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
-    <cfRule type="duplicateValues" dxfId="45" priority="305"/>
     <cfRule type="duplicateValues" dxfId="44" priority="306"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="305"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="43" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="29"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="duplicateValues" dxfId="42" priority="3961"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="3962"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="3963"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="3961"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="3962"/>
     <cfRule type="duplicateValues" dxfId="39" priority="3964"/>
     <cfRule type="duplicateValues" dxfId="38" priority="3965"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="3963"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="duplicateValues" dxfId="37" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C16">
-    <cfRule type="duplicateValues" dxfId="36" priority="3966"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="3966"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="35" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="34" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="33" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C35">
-    <cfRule type="duplicateValues" dxfId="32" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="61"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="duplicateValues" dxfId="31" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="26"/>
     <cfRule type="duplicateValues" dxfId="25" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C35">
-    <cfRule type="duplicateValues" dxfId="24" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="56"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19">
-    <cfRule type="duplicateValues" dxfId="17" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20:C21">
-    <cfRule type="duplicateValues" dxfId="16" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="duplicateValues" dxfId="15" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="duplicateValues" dxfId="14" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="13" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="duplicateValues" dxfId="12" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="49"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:I35">
-    <cfRule type="cellIs" dxfId="5" priority="247" operator="equal">
+  <conditionalFormatting sqref="D2:I35">
+    <cfRule type="cellIs" dxfId="4" priority="247" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="4" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="315" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="3" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="314" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1">
-    <cfRule type="cellIs" dxfId="2" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="313" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:W42 B36:I42">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Onto_Estrutural/Ontologia_V1_Projeto_Estrutural.xlsx
+++ b/Onto_Estrutural/Ontologia_V1_Projeto_Estrutural.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ABNT_Normas\ABNT\Onto_Projeto_Estrutural\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1681F4-6FFD-4441-8DA5-AAFBBBBE3423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1DE919-8153-4CEB-9927-F3180D20C783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{6AA21774-678E-47D1-B8DD-6444A2CEB00E}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="FatosIn" sheetId="30" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FatosIn!$E$1:$E$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FatosIn!$E$1:$E$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="123">
   <si>
     <t>Escopo</t>
   </si>
@@ -168,9 +168,6 @@
     <t>ifcTendon</t>
   </si>
   <si>
-    <t>ifcMember</t>
-  </si>
-  <si>
     <t>ifcWaII</t>
   </si>
   <si>
@@ -237,9 +234,6 @@
     <t>OST_Walls</t>
   </si>
   <si>
-    <t>ifc.Membro</t>
-  </si>
-  <si>
     <t>ifc.Parede</t>
   </si>
   <si>
@@ -403,6 +397,18 @@
   </si>
   <si>
     <t>"Acop_P1"</t>
+  </si>
+  <si>
+    <t>IfcElementAssembly</t>
+  </si>
+  <si>
+    <t>ifc.Treliça</t>
+  </si>
+  <si>
+    <t>IfcMember</t>
+  </si>
+  <si>
+    <t>ifc.TreliçaBarra</t>
   </si>
 </sst>
 </file>
@@ -697,551 +703,551 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1708,7 +1714,7 @@
       </c>
       <c r="B17" s="11">
         <f ca="1">NOW()</f>
-        <v>45383.290561458336</v>
+        <v>45383.509189814817</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1721,10 +1727,10 @@
     </row>
     <row r="19" spans="1:2" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1735,11 +1741,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD98C55-DAEF-4EAA-9319-93A02A868795}">
-  <dimension ref="A1:W56"/>
+  <dimension ref="A1:W57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="7.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1815,7 +1821,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>32</v>
@@ -1887,7 +1893,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>33</v>
@@ -1950,7 +1956,7 @@
         <v>28</v>
       </c>
       <c r="W3" s="8" t="str">
-        <f t="shared" ref="W3:W35" si="0">_xlfn.CONCAT("""","Objeto BIM estrutural   ",C3,":   ",B3,"""")</f>
+        <f t="shared" ref="W3:W36" si="0">_xlfn.CONCAT("""","Objeto BIM estrutural   ",C3,":   ",B3,"""")</f>
         <v>"Objeto BIM estrutural   ifcReinforcingMesh:   ifc.Tela"</v>
       </c>
     </row>
@@ -1959,7 +1965,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>34</v>
@@ -2031,7 +2037,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>35</v>
@@ -2103,7 +2109,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>36</v>
@@ -2175,7 +2181,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>37</v>
@@ -2247,7 +2253,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>14</v>
@@ -2319,7 +2325,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>38</v>
@@ -2391,7 +2397,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>39</v>
@@ -2463,7 +2469,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>40</v>
@@ -2535,7 +2541,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>41</v>
@@ -2607,10 +2613,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>13</v>
@@ -2670,8 +2676,8 @@
         <v>28</v>
       </c>
       <c r="W13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>"Objeto BIM estrutural   ifcMember:   ifc.Membro"</v>
+        <f t="shared" ref="W13" si="1">_xlfn.CONCAT("""","Objeto BIM estrutural   ",C13,":   ",B13,"""")</f>
+        <v>"Objeto BIM estrutural   IfcElementAssembly:   ifc.Treliça"</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2679,10 +2685,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>43</v>
+        <v>121</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>13</v>
@@ -2743,7 +2749,7 @@
       </c>
       <c r="W14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM estrutural   ifcWaII:   ifc.Parede"</v>
+        <v>"Objeto BIM estrutural   IfcMember:   ifc.TreliçaBarra"</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2751,10 +2757,10 @@
         <v>15</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>13</v>
@@ -2815,7 +2821,7 @@
       </c>
       <c r="W15" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM estrutural   OST_StructuralFoundation:   Rvt.Fundação"</v>
+        <v>"Objeto BIM estrutural   ifcWaII:   ifc.Parede"</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2823,10 +2829,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>13</v>
@@ -2887,18 +2893,18 @@
       </c>
       <c r="W16" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM estrutural   OST_Coupler:   Rvt.Acoplador"</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="7.8" x14ac:dyDescent="0.3">
+        <v>"Objeto BIM estrutural   OST_StructuralFoundation:   Rvt.Fundação"</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>17</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>13</v>
@@ -2959,18 +2965,18 @@
       </c>
       <c r="W17" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM estrutural   OST_Rebar:   Rvt.Barra"</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>"Objeto BIM estrutural   OST_Coupler:   Rvt.Acoplador"</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="7.8" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>18</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>13</v>
@@ -3031,7 +3037,7 @@
       </c>
       <c r="W18" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM estrutural   OST_FabricReinforcement:   Rvt.Tela"</v>
+        <v>"Objeto BIM estrutural   OST_Rebar:   Rvt.Barra"</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3039,10 +3045,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>13</v>
@@ -3103,7 +3109,7 @@
       </c>
       <c r="W19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM estrutural   OST_Columns:   Rvt.ColArq"</v>
+        <v>"Objeto BIM estrutural   OST_FabricReinforcement:   Rvt.Tela"</v>
       </c>
     </row>
     <row r="20" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3111,10 +3117,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>13</v>
@@ -3175,7 +3181,7 @@
       </c>
       <c r="W20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM estrutural   OST_StructuralColumns:   Rvt.ColEst"</v>
+        <v>"Objeto BIM estrutural   OST_Columns:   Rvt.ColArq"</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3183,10 +3189,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>13</v>
@@ -3247,7 +3253,7 @@
       </c>
       <c r="W21" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM estrutural   OST_StructuralFraming:   Rvt.Viga"</v>
+        <v>"Objeto BIM estrutural   OST_StructuralColumns:   Rvt.ColEst"</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3255,10 +3261,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>13</v>
@@ -3319,7 +3325,7 @@
       </c>
       <c r="W22" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM estrutural   OST_Floors:   Rvt.Laje"</v>
+        <v>"Objeto BIM estrutural   OST_StructuralFraming:   Rvt.Viga"</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3327,10 +3333,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>13</v>
@@ -3391,7 +3397,7 @@
       </c>
       <c r="W23" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM estrutural   OST_EdgeSlab:   Rvt.LajeBorda"</v>
+        <v>"Objeto BIM estrutural   OST_Floors:   Rvt.Laje"</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3399,10 +3405,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>13</v>
@@ -3463,7 +3469,7 @@
       </c>
       <c r="W24" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM estrutural   OST_StructConnections:   Rvt.Conexão"</v>
+        <v>"Objeto BIM estrutural   OST_EdgeSlab:   Rvt.LajeBorda"</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3471,10 +3477,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>13</v>
@@ -3535,7 +3541,7 @@
       </c>
       <c r="W25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM estrutural   OST_StructConnectionBolts:   Rvt.Parafuso"</v>
+        <v>"Objeto BIM estrutural   OST_StructConnections:   Rvt.Conexão"</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3543,10 +3549,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>13</v>
@@ -3607,7 +3613,7 @@
       </c>
       <c r="W26" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM estrutural   OST_StructConnectionHoles:   Rvt.Furo"</v>
+        <v>"Objeto BIM estrutural   OST_StructConnectionBolts:   Rvt.Parafuso"</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3615,10 +3621,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D27" s="21" t="s">
         <v>13</v>
@@ -3679,7 +3685,7 @@
       </c>
       <c r="W27" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM estrutural   OST_StructConnectionProfiles:   Rvt.Perfil"</v>
+        <v>"Objeto BIM estrutural   OST_StructConnectionHoles:   Rvt.Furo"</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3687,10 +3693,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>13</v>
@@ -3751,7 +3757,7 @@
       </c>
       <c r="W28" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM estrutural   OST_StructConnectionShearStuds:   Rvt.Pino"</v>
+        <v>"Objeto BIM estrutural   OST_StructConnectionProfiles:   Rvt.Perfil"</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3759,10 +3765,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D29" s="21" t="s">
         <v>13</v>
@@ -3823,7 +3829,7 @@
       </c>
       <c r="W29" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM estrutural   OST_StructConnectionWelds:   Rvt.Solda"</v>
+        <v>"Objeto BIM estrutural   OST_StructConnectionShearStuds:   Rvt.Pino"</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3831,10 +3837,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D30" s="21" t="s">
         <v>13</v>
@@ -3895,7 +3901,7 @@
       </c>
       <c r="W30" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM estrutural   OST_StructConnectionAnchors:   Rvt.Ancora"</v>
+        <v>"Objeto BIM estrutural   OST_StructConnectionWelds:   Rvt.Solda"</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3903,10 +3909,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>13</v>
@@ -3967,7 +3973,7 @@
       </c>
       <c r="W31" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM estrutural   OST_StructConnectionPlates:   Rvt.Placa"</v>
+        <v>"Objeto BIM estrutural   OST_StructConnectionAnchors:   Rvt.Ancora"</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3975,10 +3981,10 @@
         <v>32</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D32" s="21" t="s">
         <v>13</v>
@@ -4039,7 +4045,7 @@
       </c>
       <c r="W32" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM estrutural   OST_StructuralStiffener:   Rvt.Enrijecedor"</v>
+        <v>"Objeto BIM estrutural   OST_StructConnectionPlates:   Rvt.Placa"</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4047,10 +4053,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D33" s="21" t="s">
         <v>13</v>
@@ -4111,7 +4117,7 @@
       </c>
       <c r="W33" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM estrutural   OST_StructuralTendons:   Rvt.Cabo"</v>
+        <v>"Objeto BIM estrutural   OST_StructuralStiffener:   Rvt.Enrijecedor"</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4119,10 +4125,10 @@
         <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D34" s="21" t="s">
         <v>13</v>
@@ -4183,7 +4189,7 @@
       </c>
       <c r="W34" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM estrutural   OST_StructuralTruss:   Rvt.Treliça"</v>
+        <v>"Objeto BIM estrutural   OST_StructuralTendons:   Rvt.Cabo"</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4191,10 +4197,10 @@
         <v>35</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D35" s="21" t="s">
         <v>13</v>
@@ -4255,30 +4261,30 @@
       </c>
       <c r="W35" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>"Objeto BIM estrutural   OST_Walls:   Rvt.Parede"</v>
+        <v>"Objeto BIM estrutural   OST_StructuralTruss:   Rvt.Treliça"</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>36</v>
       </c>
-      <c r="B36" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>99</v>
+      <c r="B36" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>104</v>
+        <v>13</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="H36" s="21" t="s">
         <v>13</v>
@@ -4299,10 +4305,10 @@
         <v>13</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="O36" s="26" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="P36" s="15" t="s">
         <v>13</v>
@@ -4326,8 +4332,8 @@
         <v>28</v>
       </c>
       <c r="W36" s="8" t="str">
-        <f>_xlfn.CONCAT("""","Projeto estrutural. Usa o ID do elemento  ",C36,":   ",B36,"""")</f>
-        <v>"Projeto estrutural. Usa o ID do elemento  El.Estrutural:   Laje.ID.3021203"</v>
+        <f t="shared" si="0"/>
+        <v>"Objeto BIM estrutural   OST_Walls:   Rvt.Parede"</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4335,46 +4341,46 @@
         <v>37</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E37" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M37" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N37" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F37" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="G37" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J37" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K37" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="L37" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="M37" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="N37" s="15" t="s">
-        <v>113</v>
-      </c>
       <c r="O37" s="26" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P37" s="15" t="s">
         <v>13</v>
@@ -4398,8 +4404,8 @@
         <v>28</v>
       </c>
       <c r="W37" s="8" t="str">
-        <f t="shared" ref="W37:W42" si="1">_xlfn.CONCAT("""","Projeto estrutural. Usa o ID do elemento  ",C37,":   ",B37,"""")</f>
-        <v>"Projeto estrutural. Usa o ID do elemento  El.Estrutural:   Colu.ID.3021204"</v>
+        <f>_xlfn.CONCAT("""","Projeto estrutural. Usa o ID do elemento  ",C37,":   ",B37,"""")</f>
+        <v>"Projeto estrutural. Usa o ID do elemento  El.Estrutural:   Laje.ID.3021203"</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4407,28 +4413,28 @@
         <v>38</v>
       </c>
       <c r="B38" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>80</v>
-      </c>
       <c r="F38" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="G38" s="24" t="s">
-        <v>109</v>
-      </c>
       <c r="H38" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="I38" s="24" t="s">
-        <v>104</v>
+        <v>13</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="J38" s="21" t="s">
         <v>13</v>
@@ -4443,10 +4449,10 @@
         <v>13</v>
       </c>
       <c r="N38" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="O38" s="26" t="s">
         <v>113</v>
-      </c>
-      <c r="O38" s="26" t="s">
-        <v>116</v>
       </c>
       <c r="P38" s="15" t="s">
         <v>13</v>
@@ -4470,8 +4476,8 @@
         <v>28</v>
       </c>
       <c r="W38" s="8" t="str">
-        <f t="shared" ref="W38" si="2">_xlfn.CONCAT("""","Projeto estrutural. Usa o ID do elemento  ",C38,":   ",B38,"""")</f>
-        <v>"Projeto estrutural. Usa o ID do elemento  El.Armadura:   ArmB.ID.903920"</v>
+        <f t="shared" ref="W38:W43" si="2">_xlfn.CONCAT("""","Projeto estrutural. Usa o ID do elemento  ",C38,":   ",B38,"""")</f>
+        <v>"Projeto estrutural. Usa o ID do elemento  El.Estrutural:   Colu.ID.3021204"</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4479,28 +4485,28 @@
         <v>39</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C39" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H39" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>100</v>
-      </c>
       <c r="I39" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J39" s="21" t="s">
         <v>13</v>
@@ -4515,10 +4521,10 @@
         <v>13</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O39" s="26" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P39" s="15" t="s">
         <v>13</v>
@@ -4542,8 +4548,8 @@
         <v>28</v>
       </c>
       <c r="W39" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>"Projeto estrutural. Usa o ID do elemento  El.Armadura:   ArmP.ID.903921"</v>
+        <f t="shared" ref="W39" si="3">_xlfn.CONCAT("""","Projeto estrutural. Usa o ID do elemento  ",C39,":   ",B39,"""")</f>
+        <v>"Projeto estrutural. Usa o ID do elemento  El.Armadura:   ArmB.ID.903920"</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4551,28 +4557,28 @@
         <v>40</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C40" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>100</v>
-      </c>
       <c r="I40" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J40" s="21" t="s">
         <v>13</v>
@@ -4587,10 +4593,10 @@
         <v>13</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O40" s="26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P40" s="15" t="s">
         <v>13</v>
@@ -4614,8 +4620,8 @@
         <v>28</v>
       </c>
       <c r="W40" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>"Projeto estrutural. Usa o ID do elemento  El.Armadura:   ArmN.ID.903922"</v>
+        <f t="shared" si="2"/>
+        <v>"Projeto estrutural. Usa o ID do elemento  El.Armadura:   ArmP.ID.903921"</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4623,28 +4629,28 @@
         <v>41</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C41" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H41" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="G41" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="H41" s="21" t="s">
-        <v>100</v>
-      </c>
       <c r="I41" s="24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J41" s="21" t="s">
         <v>13</v>
@@ -4659,10 +4665,10 @@
         <v>13</v>
       </c>
       <c r="N41" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O41" s="26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P41" s="15" t="s">
         <v>13</v>
@@ -4686,8 +4692,8 @@
         <v>28</v>
       </c>
       <c r="W41" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>"Projeto estrutural. Usa o ID do elemento  El.Armadura:   ArmE.ID.903923"</v>
+        <f t="shared" si="2"/>
+        <v>"Projeto estrutural. Usa o ID do elemento  El.Armadura:   ArmN.ID.903922"</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4695,29 +4701,29 @@
         <v>42</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C42" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H42" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F42" s="21" t="s">
+      <c r="I42" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="G42" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="H42" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="I42" s="24" t="s">
-        <v>106</v>
-      </c>
       <c r="J42" s="21" t="s">
         <v>13</v>
       </c>
@@ -4731,10 +4737,10 @@
         <v>13</v>
       </c>
       <c r="N42" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O42" s="26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="P42" s="15" t="s">
         <v>13</v>
@@ -4758,12 +4764,81 @@
         <v>28</v>
       </c>
       <c r="W42" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>"Projeto estrutural. Usa o ID do elemento  El.Armadura:   ArmE.ID.903923"</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13">
+        <v>43</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="I43" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="J43" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L43" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M43" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="N43" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="O43" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="P43" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q43" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="R43" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S43" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="T43" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U43" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V43" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W43" s="8" t="str">
+        <f t="shared" si="2"/>
         <v>"Projeto estrutural. Usa o ID do elemento  El.Armadura:   Acop.ID.903924"</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:23" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="2"/>
@@ -4804,134 +4879,137 @@
     <row r="56" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="2"/>
     </row>
+    <row r="57" spans="3:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W17">
-    <sortCondition ref="B1:B17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W18">
+    <sortCondition ref="B1:B18"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:B1 D1 X1:XFD1 V2:XFD2 A2:A42 X3:XFD1048576 B18 A43:D56 F43:F1048576 H43:V1048576 A57:B1048576 D57:D1048576 J2:U42">
-    <cfRule type="cellIs" dxfId="59" priority="317" operator="equal">
+  <conditionalFormatting sqref="A1:B1 D1 X1:XFD1 V2:XFD2 B19 A44:D57 F44:F1048576 H44:V1048576 A58:B1048576 D58:D1048576 J2:U43 X3:XFD1048576 A2:A43">
+    <cfRule type="cellIs" dxfId="0" priority="317" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B16">
-    <cfRule type="duplicateValues" dxfId="58" priority="3952"/>
-    <cfRule type="duplicateValues" dxfId="57" priority="3956"/>
+  <conditionalFormatting sqref="B2:B17">
+    <cfRule type="duplicateValues" dxfId="59" priority="3952"/>
+    <cfRule type="duplicateValues" dxfId="58" priority="3953"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="3954"/>
     <cfRule type="duplicateValues" dxfId="56" priority="3955"/>
-    <cfRule type="duplicateValues" dxfId="55" priority="3954"/>
-    <cfRule type="duplicateValues" dxfId="54" priority="3953"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="3956"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B16">
-    <cfRule type="duplicateValues" dxfId="53" priority="3957"/>
+  <conditionalFormatting sqref="B3:B17">
+    <cfRule type="duplicateValues" dxfId="54" priority="3957"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="duplicateValues" dxfId="52" priority="3993"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="3988"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="3987"/>
-    <cfRule type="duplicateValues" dxfId="49" priority="3989"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="3990"/>
-    <cfRule type="duplicateValues" dxfId="47" priority="3991"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="3992"/>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="duplicateValues" dxfId="53" priority="3987"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="3988"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="3989"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="3990"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="3991"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="3992"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="3993"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:B1048576 B18 B1">
-    <cfRule type="duplicateValues" dxfId="45" priority="3977"/>
+  <conditionalFormatting sqref="B58:B1048576 B19 B1">
+    <cfRule type="duplicateValues" dxfId="46" priority="3977"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C2">
+    <cfRule type="duplicateValues" dxfId="45" priority="305"/>
     <cfRule type="duplicateValues" dxfId="44" priority="306"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="305"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="42" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C16">
-    <cfRule type="duplicateValues" dxfId="41" priority="3961"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="3962"/>
+  <conditionalFormatting sqref="C2:C17">
+    <cfRule type="duplicateValues" dxfId="42" priority="3961"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="3962"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="3963"/>
     <cfRule type="duplicateValues" dxfId="39" priority="3964"/>
     <cfRule type="duplicateValues" dxfId="38" priority="3965"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="3963"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="duplicateValues" dxfId="36" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C16">
-    <cfRule type="duplicateValues" dxfId="35" priority="3966"/>
+  <conditionalFormatting sqref="C3:C17">
+    <cfRule type="duplicateValues" dxfId="36" priority="3966"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="34" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="duplicateValues" dxfId="33" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="32" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C35">
-    <cfRule type="duplicateValues" dxfId="31" priority="61"/>
+  <conditionalFormatting sqref="C9:C36">
+    <cfRule type="duplicateValues" dxfId="32" priority="61"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="duplicateValues" dxfId="30" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="26"/>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="duplicateValues" dxfId="31" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
     <cfRule type="duplicateValues" dxfId="25" priority="28"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C35">
-    <cfRule type="duplicateValues" dxfId="23" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="58"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="60"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="56"/>
+  <conditionalFormatting sqref="C18:C36">
+    <cfRule type="duplicateValues" dxfId="24" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="60"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="duplicateValues" dxfId="16" priority="50"/>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="duplicateValues" dxfId="17" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20:C21">
-    <cfRule type="duplicateValues" dxfId="15" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="duplicateValues" dxfId="14" priority="52"/>
+  <conditionalFormatting sqref="C21:C22">
+    <cfRule type="duplicateValues" dxfId="16" priority="53"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="duplicateValues" dxfId="13" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="12" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="51"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="duplicateValues" dxfId="11" priority="48"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="44"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="49"/>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="duplicateValues" dxfId="13" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:I35">
-    <cfRule type="cellIs" dxfId="4" priority="247" operator="equal">
+  <conditionalFormatting sqref="C33">
+    <cfRule type="duplicateValues" dxfId="12" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:I36">
+    <cfRule type="cellIs" dxfId="5" priority="247" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="3" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="315" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="2" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="314" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1">
-    <cfRule type="cellIs" dxfId="1" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="313" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V3:W42 B36:I42">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="B37:I43 V3:W43">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
